--- a/biology/Médecine/Lame_prétrachéale_du_fascia_cervical/Lame_prétrachéale_du_fascia_cervical.xlsx
+++ b/biology/Médecine/Lame_prétrachéale_du_fascia_cervical/Lame_prétrachéale_du_fascia_cervical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9trach%C3%A9ale_du_fascia_cervical</t>
+          <t>Lame_prétrachéale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame prétrachéale du fascia cervical (appelée également l'aponévrose cervicale moyenne, l'aponévrose omo-claviculaire de Richet, l'aponévrose omo-hyoïdo-claviculaire de Paulet ou l'aponévrose thoraco-hyoïdienne de Testut en ancienne nomenclature anatomique) est la partie moyenne profonde du fascia cervical.
 C'est la structure aponévrotique des muscles sous-hyoïdiens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9trach%C3%A9ale_du_fascia_cervical</t>
+          <t>Lame_prétrachéale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame prétrachéale du fascia cervical est constitué de deux plans : un plan superficiel et un plan profond.
 La couche superficielle s'étend entre les muscles omo-hyoïdiens en engainant les muscles sterno-hyoïdiens.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9trach%C3%A9ale_du_fascia_cervical</t>
+          <t>Lame_prétrachéale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Insertion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au-dessus, la lame prétrachéale du fascia cervical est fixé à l'os hyoïde.
 En dessous, elle passe devant la trachée et les gros vaisseaux de la racine du cou, et se confond finalement avec le péricarde.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lame_pr%C3%A9trach%C3%A9ale_du_fascia_cervical</t>
+          <t>Lame_prétrachéale_du_fascia_cervical</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame prétrachéale du fascia cervical entoure la glande thyroïde et est responsable de son mouvement pendant la déglutition.
 </t>
